--- a/BlackJackApi/Strategy/strategy.xlsx
+++ b/BlackJackApi/Strategy/strategy.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\BlackJackApi\BlackJackApi\Strategy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\blackjackchallenge\BlackJackChallenge\BlackJackApi\Strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311B5109-B6C4-4201-97D4-AFE1AA4DF0CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E83AB27-617E-4250-A18A-86D133A88734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hard" sheetId="1" r:id="rId1"/>
     <sheet name="Soft" sheetId="2" r:id="rId2"/>
-    <sheet name="Split" sheetId="3" r:id="rId3"/>
+    <sheet name="Split" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -667,7 +667,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:N1"/>
+      <selection activeCell="D10" sqref="D10:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,34 +1516,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:N1">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L19">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M19">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N19">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1557,7 +1557,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O12"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,42 +2124,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:L12">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:O1">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M12">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N12">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O12">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2708,18 +2708,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M1:XFD14 A15:XFD1048576">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:L14">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
